--- a/src/inputs/Links.xlsx
+++ b/src/inputs/Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperreed/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperreed/Documents/GitHub/BMX-bookmark-extractor/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CDCB15-17BB-764A-B3E6-ECF6C68577E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060BE28-77B0-EA40-98B1-9860995D014E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26060" yWindow="500" windowWidth="26060" windowHeight="16940" xr2:uid="{B1E78708-B2BB-5641-9639-EDE0B48A5CF2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1281">
   <si>
     <t>https://www.linkedin.com/jobs/view/2968266729/?refId=0e91927d-1c51-46cc-9571-978b8d514018&amp;trackingId=wBzwJDa5R8Sb2knCRV8gDA%3D%3D&amp;trk=flagship3_job_home_archivedjobs</t>
   </si>
@@ -2923,6 +2923,963 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/3223526909/?refId=4fc00326-9a3a-4769-93b6-056b2afff140&amp;trackingId=962qLVR5T0uiwebq8UPNfA%3D%3D&amp;trk=flagship3_job_home_archivedjobs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3148201455/?refId=7c20f4a3-b560-4ca4-a012-675c0c587063&amp;trackingId=T9ch5C5zTyeGFJo3Pww8bQ%3D%3D&amp;trk=flagship3_job_home_archivedjobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_myitems_savedjobs%3B0QJOar6xQ%2BGLrG9vXKd1gw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230389066/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=KDiXjCFvTNSFfTk7a6Xl%2Fw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3106011512/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=9KwGC8cnRgOTQJsun4bblQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3195617647/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=MCOcnDVwTqa8c18Scqu%2BaA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3062023411/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=zStH%2FzutS3u0uzJR%2F2z1hg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3208873214/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=qAqR%2FQIRS2uvPRwLKitIjg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3229355565/?refId=05d80fb8-bce1-4f48-891f-2b4ff0f78de0&amp;trackingId=nN%2F4pPHLRdierLowjss0YQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/2950240572/?refId=7c20f4a3-b560-4ca4-a012-675c0c587063&amp;trackingId=9RG0oJ66QL2nccHCyxIq1Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3018707424/?refId=7c20f4a3-b560-4ca4-a012-675c0c587063&amp;trackingId=Qk15j0%2F2RYGVhIGNGpJVoA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3225851966/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=wcZpt%2BzER9quXrgP6e1jJQ%3D%3D | (23) Senior Software Engineer | Mozilla | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/2893404419/?refId=e0537e5d-9649-45b8-8c67-1aca7d0bc951&amp;trackingId=aCOMQyZ1TMWg%2BW6clErBvw%3D%3D | (23) Senior Engineer- Ecosystem Projects | Protocol Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3219917137/?refId=e0537e5d-9649-45b8-8c67-1aca7d0bc951&amp;trackingId=OzC8j186QP6TicZL4fvAzA%3D%3D | (23) Fullstack Software Engineer | QuickNode ⚡ | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3054123451/?refId=e0537e5d-9649-45b8-8c67-1aca7d0bc951&amp;trackingId=3PJ4swhzQl%2BaHymXJ284SQ%3D%3D | (23) Full Stack Engineer (Innovation Lab) | Consensys | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3177240399/?refId=e0537e5d-9649-45b8-8c67-1aca7d0bc951&amp;trackingId=w9PqFuDEQfmj0C2jwqlx8w%3D%3D | (23) Senior Full Stack Engineer, Web3 | Kraken Digital Asset Exchange | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3177240396/?refId=e0537e5d-9649-45b8-8c67-1aca7d0bc951&amp;trackingId=AfhqxtubS6GKMthunQRfkA%3D%3D | (23) Senior Full Stack Engineer, Web3 | Kraken Digital Asset Exchange | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3204046470/?refId=14585bbc-c3cf-4861-b3ac-2d0c0b9230bf&amp;trackingId=XhUXMUKvRDmjp%2BZC7H0R8g%3D%3D | (23) Engineering Manager, Freemium | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223167752/?refId=14585bbc-c3cf-4861-b3ac-2d0c0b9230bf&amp;trackingId=6eeVrC4yRAmUD1VvfXHNEg%3D%3D | (23) Product Designer, Admin Experience | Atlassian | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230926429/?refId=14585bbc-c3cf-4861-b3ac-2d0c0b9230bf&amp;trackingId=Z%2FBFoBkFSNWr9t9Q0WvF3g%3D%3D | (23) Senior Product Designer | Momentum Design Lab | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3131666205/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=zbuUA370T1%2BubDii6CYXwg%3D%3D | (23) Senior Web Engineer | Fastly | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223108501/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=Fl3n2K%2B1TRmTBjQ3EZJflw%3D%3D | (23) CFO Technology - Manager (NetSuite) | Accordion | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3228461164/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=ZrxKUDvDToCKXSKWXWyUuA%3D%3D | (23) Blockchain Architect - (Hyperledger Fabric, Ethereum, Web3) - 100% Remote | Optomi Professional Services | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3221197273/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=k6A%2BmuujRqGD%2FH%2BJvhcYVA%3D%3D | (23) Lead AAA Unity Engineer | Spectrum Search | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3217800801/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=pIU0TNb5Q3qthJCItqJEkg%3D%3D | (23) Full Stack Backend Engineer | Impellam Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3228610920/?refId=46774ec6-fe4c-4a17-aeff-0cefcbc430c0&amp;trackingId=eMq3WZoXSSa3h8RWQQxRLg%3D%3D | (23) Full Stack Web3 Engineer | Raydar | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3195563034/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=Ftd3ls2FRba%2FlgqSPYSlXA%3D%3D | (22) Full Stack Engineer | Metatheory Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/2911281693/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=1u%2BLgIS5Q9mIp3IRHYkKRw%3D%3D | (22) Public-Goods-Funding Software Engineer | Protocol Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3077093261/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=s9DkAwInSOeoPLk9N3fNCw%3D%3D | (22) Senior Full Stack Engineer | HIFI Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3194940922/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=ZlT1ZpqiR4Wq6yUVivrtCw%3D%3D | (22) Manager of Crypto Marketing | Manticore Games Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3034629380/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=jIq71c0hQ8yaz4zK%2BdNMqg%3D%3D | (22) Smart Contract Engineer, CryptoEconLab | Protocol Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3209813684/?refId=e399a125-aec5-4848-962a-717dc4ec4db3&amp;trackingId=giaI3pnmRpGuGcfmrYU9Bg%3D%3D | (22) Blockchain Engineer | Netvrk | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3186489711/?refId=b4680119-751d-4def-851f-9235dd7bbff5&amp;trackingId=H5CkMbyoT5SCWVbRq2haeg%3D%3D | (22) Open Call to Software Engineers | Protocol Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3216701849/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=3R3B%2BH4HTN2ybT7R5Z%2F4Tg%3D%3D | (22) Global Community Manager, Pokémon GO | Niantic, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230801072/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=r4qLf0%2BfRYK0TmUTWvxtRA%3D%3D | (22) Product Manager | Underdog.io | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3209820569/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=Yh4L3AgKTj68%2Ba%2F45NCEqw%3D%3D | (22) Full Stack (MEAN) Developer (100% Remote) | Softrams | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3226023141/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=2BTNbLoYRjaDszkumk3e6w%3D%3D | (22) UX/UI Designer - LEADING VIRTUAL REALITY FIRM! Remote | Modis | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223527720/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=mG7WNW1pRpaL40owJNWAEA%3D%3D | (22) Product Design, Early Career (2023) | Figma | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3231378620/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=nvZAtPZ4QuCUGOybmksHqA%3D%3D | (22) Product Designer - Growth Opportunities | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3217836125/?refId=7a8a858d-76c7-4e41-967e-17f37c680488&amp;trackingId=MWtoWNKxR%2BiAcn7bhZUStg%3D%3D | (22) UX Interaction Prototyper | Apple | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3020930145/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=QYkRX%2BvpSHOCDm%2FB2XNgvQ%3D%3D | (22) Cloud Application Developer (m/w/d) | Expleo Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3234519725/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=D5SoDEGDTyuthA%2F4cWkYUg%3D%3D | (22) Software Engineer - Frontend | CoinTracker | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3217191833/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=%2FL2Gr89GTamM3Dt0WxHfxA%3D%3D | (22) Developer Relations Evangelist | PubNub | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3231376988/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=7A%2FMJhuzS9aAI2R57irMeA%3D%3D | (22) Product Designer - Growth Opportunities | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230798379/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=01K%2Ff%2B4aSByz%2BwJkjXEEJw%3D%3D | (22) Product Manager - Remote | Underdog.io | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3209714878/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=VVZyRGtOTKWbZwZyMcvy2w%3D%3D | (22) Software Engineer (Open to Location) | Slalom | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230877923/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=Bc%2FazyW2Qxas3GYoO6Qufg%3D%3D | (22) Junior UI UX Designer | Citi | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3231377747/?refId=93499f3f-4a4b-454a-99e9-e3ab04cc7ebf&amp;trackingId=PWH4xG7ASNK6pJIaR2UtRQ%3D%3D | (22) Product Designer - Growth Opportunities | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3680434617/?refId=868a9ca1-c453-478c-898d-a9ab360351bf&amp;trackingId=TbecBpk5TkGjKR8njv8lFw%3D%3D | (23) Generative AI Engineer(Remote) | Dice | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3661234229/?refId=868a9ca1-c453-478c-898d-a9ab360351bf&amp;trackingId=7mPgzmixS8Ov88TizukswA%3D%3D | (23) AI Prompt Engineer, gt.school (Remote) - $100,000/year USD | Crossover | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3626659282/?refId=868a9ca1-c453-478c-898d-a9ab360351bf&amp;trackingId=%2B33QOdFEQ%2BOYmDbdl8Ojvw%3D%3D | (23) Senior AI Security Engineer, NLP | NVIDIA | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3663832294/?refId=a5831fd2-f0d0-4838-9844-6d29b7c54d2f&amp;trackingId=9G58BtH7RTOZPfsYMPpC%2FA%3D%3D | (23) Sr. Software Engineer | Solana Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3663855071/?refId=a5831fd2-f0d0-4838-9844-6d29b7c54d2f&amp;trackingId=nK0vE2jqS4%2BNWTTwe1Kn2Q%3D%3D | (23) Software Engineer | Starlight | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3657734884/?refId=d3f56dd9-47f9-4980-9dff-d91227e354ee&amp;trackingId=xtgFcT17Q5qBcwWag4u60A%3D%3D | (23) ⭐ Senior Software Engineer | Replo (YC S21) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3657838788/?refId=d3f56dd9-47f9-4980-9dff-d91227e354ee&amp;trackingId=85utMFS1ThOSG0V7IWZlHw%3D%3D | (23) Blockchain Engineer | Hiro | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3445733982/?refId=69a9264f-8d5c-4ca9-aa3d-8635552607be&amp;trackingId=lHTUFMmEStu4U%2FZYym%2F19Q%3D%3D | (23) Senior Software Engineer, AI Products | Instabase | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3662261271/?refId=69a9264f-8d5c-4ca9-aa3d-8635552607be&amp;trackingId=sPMf%2B6csS0q7uRoitzj%2F6A%3D%3D | (23) Sr. Full Stack Software Engineer – Strategic Initiatives | Solana Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3656700649/?refId=69a9264f-8d5c-4ca9-aa3d-8635552607be&amp;trackingId=QjgZDwroSual%2Fp7TcQVQsA%3D%3D | (23) Solidity Developer | Understanding Recruitment | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3592248550/?refId=69a9264f-8d5c-4ca9-aa3d-8635552607be&amp;trackingId=ns1Mp6jhSXOmgt0CNj3N6A%3D%3D | (23) Senior Software Engineer | Yuga Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3643222128/?refId=c4ec2539-31e6-468f-8760-8153a758054e&amp;trackingId=aq3FG1UxQb2Mw%2FJvUTYDfg%3D%3D | (23) Senior Software Engineer, Trading | Forge | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3641276205/?refId=c4ec2539-31e6-468f-8760-8153a758054e&amp;trackingId=4BYaQQQyRpqlZQUtgdna7w%3D%3D | (23) Senior Software Development Engineer | Fastly | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3658622613/?refId=c4ec2539-31e6-468f-8760-8153a758054e&amp;trackingId=54FpoGuGSIqdwi4%2Bg7y6XQ%3D%3D | (23) Senior Fullstack Developer (Node / React) - Web3 / DeFi | Lity | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3660389767/?refId=c4ec2539-31e6-468f-8760-8153a758054e&amp;trackingId=uAUha5WEQVacPWtm1dq9Bw%3D%3D | (23) Crypto/Web3 Senior Backend Engineer (Remote) | UltraSpace3 | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3615653236/?refId=66a8e8e7-7e19-47a9-ac74-23dd3a297e2c&amp;trackingId=Lqil4Ig2QMqoHSPAECvbFg%3D%3D | (23) Risk Software Engineer – Hedge Fund – $150,000-200,000 Salary + Bonuses | Saragossa | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3676752477/?refId=6c3c0f67-e50a-4792-a7d8-d5827ae1b994&amp;trackingId=RahEOWskRXqIK77lLla4Ag%3D%3D | (23) Senior Software Engineer, Frontend | Artemis | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3674587371/?refId=6c3c0f67-e50a-4792-a7d8-d5827ae1b994&amp;trackingId=HcjeUiE2QVi9EewQ9WxjrA%3D%3D | (23) Software Engineer | Basis | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3672766544/?refId=6c3c0f67-e50a-4792-a7d8-d5827ae1b994&amp;trackingId=Md6bgcA9SJWjuVQT4TYj0Q%3D%3D | (23) Blockchain Developer | Odiin | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3614603866/?refId=d1dc0a73-e24a-4950-b138-edfbbb3476ab&amp;trackingId=XFRIG4m0QumtKEh7Ynx%2FhA%3D%3D | (23) React Developer – Create better visualisations – $150,000-160,000 Salary + Bonus | Saragossa | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675499963/?refId=d1dc0a73-e24a-4950-b138-edfbbb3476ab&amp;trackingId=ou6hnI8ITj%2B1feuXAsGCpQ%3D%3D | (23) Smart Contract Engineer | UP TOP | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3672812861/?refId=d1dc0a73-e24a-4950-b138-edfbbb3476ab&amp;trackingId=6SaADy95RaeLVH5fquWLHg%3D%3D | (23) Principal Software Engineer (Full-Stack - US/UK) | The Auction Collective | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3677229120/?refId=d1dc0a73-e24a-4950-b138-edfbbb3476ab&amp;trackingId=LJscFqA3RimuZHYScl2rCA%3D%3D | (23) Associate Software Engineer | Kickstarter | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3676961647/?refId=d1dc0a73-e24a-4950-b138-edfbbb3476ab&amp;trackingId=B1hZooOpQxiKIF7P2jxUTg%3D%3D | (23) Full Stack Engineer | Diana Health (We're Hiring!) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3668216798/?refId=4297f52c-bfed-4451-b105-e887ed68546a&amp;trackingId=fyDrRq5gRC6gsi01s%2BJNOQ%3D%3D | (23) Lead Engineer (Web3) | MetaSearch Global | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675619833/?refId=805c2241-2a31-4ef8-9987-934c033c7d78&amp;trackingId=4Hsw3utCQ92NKeHmkk%2BamA%3D%3D | (23) Senior ML/AI engineer | Onebrief | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3674407707/?refId=805c2241-2a31-4ef8-9987-934c033c7d78&amp;trackingId=6LPdRqGXS8aTHEtAxaGNgQ%3D%3D | (23) AI Engineer - Freelance [Remote] | Braintrust | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3671778679/?refId=805c2241-2a31-4ef8-9987-934c033c7d78&amp;trackingId=cSjIbdK1SRa5UosfPq%2FA9Q%3D%3D | (23) Web3 Product Designer | In Technology Group Inc (US) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3661145105/?refId=805c2241-2a31-4ef8-9987-934c033c7d78&amp;trackingId=VlM7T0IlT2eFHa0RB8%2FMCg%3D%3D | (23) AI Engineer (Python) | Open Systems Technologies | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3676002872/?refId=805c2241-2a31-4ef8-9987-934c033c7d78&amp;trackingId=SwP7yEr8Tli35Q9kjx0hXA%3D%3D | (23) AI Research Engineer | AlphaSense | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3677449259/?refId=d8c1402d-d094-48e1-a3ba-10fe357facd0&amp;trackingId=i12jY1%2FJTM%2Bf2ZtZV%2BLPpg%3D%3D | (23) AI Engineer, Google Cloud | Google | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675595550/?refId=d8c1402d-d094-48e1-a3ba-10fe357facd0&amp;trackingId=Ce2N8VovQViy6wDlEtb7Qw%3D%3D | (23) Partner Engineer, Generative AI, Global Systems Integrators | Google | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3651950867/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=GbueUJAfT52Hou1Gy3syJQ%3D%3D | (23) Software Engineer, Product - Reality Labs | Oculus VR | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3654160120/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=wvT5R78hSJu3XWoRERoMOQ%3D%3D | (23) Software Engineer - Full Stack (Mid/Senior) | Clear Street | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3676736006/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=sXsGkIE2Sdyu7albs7au2w%3D%3D | (23) Founding Principal Engineer, Web3 startup (well funded) | Foundation Talent | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3650176840/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=n2gi3eeoRiau7oOjqicASA%3D%3D | (23) Software Engineer | NBCUniversal | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3676792879/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=4BKgSQ5vRnmhCM%2FxbrDl8Q%3D%3D | (23) Access Software Engineer | Cloudflare | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3651309873/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=p7g60ifnQ%2FiE6ckRdDvvLQ%3D%3D | (23) Senior Software Engineer | FalconX | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3679743789/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=NTIcNCE7QrqbNK1qgz6MLg%3D%3D | (23) Software Engineer - Developer Experience | Virta Health | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3669564258/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=JhGJ96J2QdiSl9dJbvYtxg%3D%3D | (23) Principal Software Engineer, Web5 Full Stack | FormFree® | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3637372481/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=aPa77UbzRrq59A78P3II5A%3D%3D | (23) Software Engineer, Infrastructure | Meta | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675786044/?refId=fab01322-21db-4368-9a21-17363e071873&amp;trackingId=RRIEGnIWSzCt1HKXeX%2BFEA%3D%3D | (23) Software Engineer | maven | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3361595602/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=UOnP69QBSYibGjHgEzBQOQ%3D%3D | (23) Full Stack Engineer | Knock | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3645223392/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=t1SgJiWwQ%2BurFKKKlD6z1w%3D%3D | (23) Quantitative Developer/Software Engineer | MassMutual | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3677907716/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=uhTfhzOPTjmExkLfNQpn5g%3D%3D | (23) Full Stack Engineer | Cypris | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3656646756/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=MfgCjeYHTtuOA71oEzvZdw%3D%3D | (23) Senior Software Engineer, Java | Squarespace | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3655632722/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=N1tM6WYAQXiHEY1rPsJL%2Fw%3D%3D | (23) Software Engineer | Torch Dental | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3674382155/?refId=0f4acdb6-5b5f-4ab0-a4f4-7890281ae19d&amp;trackingId=07f%2F0cQtTjKPOy0%2FgoQKJg%3D%3D | (23) Lead Front End Developer | Vera | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3679177796/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=6cnVeBBmRP%2BMkv589%2Bw4Cg%3D%3D | (23) Founding Engineer | PromptLayer | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3677770589/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=RSzvKJVrQpqridkM6W32Mw%3D%3D | (23) Senior Software Engineer | Elsdon Consulting ltd | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675648602/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=kOQU0%2FIOQwGBKWUnHCmahA%3D%3D | (23) Rotational Software Engineer | Meta | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3645219410/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=mk9J3blhSQGqMkwcB7MbiA%3D%3D | (23) Full Stack Software Engineer | MassMutual | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675603327/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=eCCOWPPAShOxe%2F%2BQopitPA%3D%3D | (23) Senior Software Engineer | Harbor.ai | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3670671378/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=Dm%2BOGFhPR%2ByYyKuX0yL8kw%3D%3D | (23) Software Engineer, Front End | Meta | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3494543466/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=18ygNKw9QIagdJQEFl2YXw%3D%3D | (23) Software Engineer, Privacy | Notion | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675071225/?refId=cb05add7-0f50-405e-810c-732aa833063a&amp;trackingId=0ltIFxZFQ0KacUR%2B5ea62w%3D%3D | (23) Blockchain Developer | Searchability | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/2195254353/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=SQ5WyvBKS5aOlPO0%2FoUK5A%3D%3D | (22) Web3/Blockchain Architecture Intern | Sonder Studio | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3232239562/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=1naN4ArgRZitdyLiIt9i1w%3D%3D | (22) Head of Web3 Engineering | Space and Time | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3236569259/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=e2kUql4HS92k%2BnsBmHhu6w%3D%3D | (22) Blockchain &amp; NFT Intern | Summit Invest CO. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3230798373/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=uyOol2MeT8erDB7hmEdkHg%3D%3D | (22) Product Designer | Underdog.io | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3224849568/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=nlLInSAAToaF6Z4ItRx5zw%3D%3D | (22) Global Community Manager, NBA All World | Niantic, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3234524020/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=H%2FP%2Bv1cLSc%2BZghSYXfKDGQ%3D%3D | (22) Software Engineer - Frontend | CoinTracker | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3222933937/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=7GLN8pTWTdKQy9HA4nxAlQ%3D%3D | (22) Senior UX Designer, Digital Twins | Unity | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3224291201/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=a2X%2BkP1rTuae9cdXrQ8l%2BQ%3D%3D&amp;trk=flagship3_job_home_archivedjobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_myitems_savedjobs%3BOGHhtMKETV2cBFleQqbwRg%3D%3D | linkedin.com/jobs/view/3224291201/?refId=e0ff8953-cf58-4ab1-9d8d-6b486fd99103&amp;trackingId=a2X%2BkP1rTuae9cdXrQ8l%2BQ%3D%3D&amp;trk=flagship3_job_home_archivedjobs&amp;lipi=urn%3Ali%3Apage%3Ad_flagship3_myitems_savedjobs%3BOGHhtMKETV2cBFleQqbwRg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3291257880/?refId=08fecd84-41ac-44b4-8164-d04436c409f4&amp;trackingId=mim0Ya20Qrex3%2BkEAVEwdQ%3D%3D | (23) Full Stack Engineer - React | Magic Eden | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3300931545/?refId=08fecd84-41ac-44b4-8164-d04436c409f4&amp;trackingId=Ssd0Sa%2BBQJSA9YKDirZL%2Bw%3D%3D | (23) Software Engineer - (Open to Remote) | Activision | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3301162812/?refId=ae4135b1-0896-426f-972e-1b27110f64c0&amp;trackingId=LiCIV%2BNqTtaCLawgPhzeBA%3D%3D | (23) Staff Frontend Engineer | Influencer Platform - Fully Remote | LTK (formerly rewardStyle &amp; LIKEtoKNOW.it) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3180807032/?refId=ae4135b1-0896-426f-972e-1b27110f64c0&amp;trackingId=dHUpYNZgQcGj9A7%2Bws3wVQ%3D%3D | (23) Senior Backend Engineer (Media Services) | Epic Games | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3313394712/?refId=1d1319db-a218-43ed-84d7-a460e8841bc2&amp;trackingId=wGarNBXBROyp12zyfb6wLg%3D%3D | (23) Software Engineer, Front End | Notion | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3178525780/?refId=f56c9a14-b83b-4aa6-8427-edb41ff28838&amp;trackingId=%2FYgF3%2BjtQje%2FkcS16iFEHg%3D%3D | (23) AIML - iOS Software Engineer | Apple | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3306915311/?refId=f56c9a14-b83b-4aa6-8427-edb41ff28838&amp;trackingId=VPphBungQAuKi8jhYfnyzA%3D%3D | (23) AI Engineer II | Kroll | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3326106610/?refId=92e937f0-2525-4a86-ad1c-f7562dfd5167&amp;trackingId=pa3x1WgxSFOXi9OGYySArw%3D%3D | (23) Full Stack Software Engineer | Zillow | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3324399577/?refId=7a6bad13-8e65-4990-a2a0-ef31bef03506&amp;trackingId=Y22yVKcqTCSx3fvxaLo54A%3D%3D | (23) AI Security Engineer | Boston Consulting Group (BCG) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3318279591/?refId=688771c0-0f9f-4732-83b9-b46e7195192a&amp;trackingId=QDAJbnKQSHaV0VqQ9zzdjA%3D%3D | (23) Frontend Engineer - Typescript | Couchbase | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3312887760/?refId=688771c0-0f9f-4732-83b9-b46e7195192a&amp;trackingId=1i8KuxJ0RQmGLo06jH8X9Q%3D%3D | (23) Experienced Software Engineer - Full Stack (Link Platform) | Plaid | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3293830536/?refId=b6df41d3-08bf-49d7-b58c-bb5824dce4ab&amp;trackingId=WV7%2F8L3TRhCbSSa0RmuhNw%3D%3D | (23) Full Stack Developer | Verified Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3336388328/?refId=b6df41d3-08bf-49d7-b58c-bb5824dce4ab&amp;trackingId=ORRDApmJQ66SwLTNihFrXQ%3D%3D | (23) Senior Full Stack Engineer | Industry leading FinTech - Hybrid NYC! | Intelletec | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3306139714/?refId=9588b164-3aaf-4e4c-b40b-b28fb925ce39&amp;trackingId=XcTLjLtfQbiXxAwBbphRCA%3D%3D | (23) Software Engineer | Lido | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3284242103/?refId=9588b164-3aaf-4e4c-b40b-b28fb925ce39&amp;trackingId=MYJ6UlyoQXW%2FZGQr%2BtPhJg%3D%3D | (23) Solidity Engineer | Manifold | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3344376129/?refId=9588b164-3aaf-4e4c-b40b-b28fb925ce39&amp;trackingId=vhKxm%2FNAShmopYC8%2FRvqBA%3D%3D | (23) Smart Contract Engineer | Confidential | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3348226095/?refId=fbb1ac61-8176-4342-97b4-da75fc807202&amp;trackingId=hwBOp1opSn2r2ENryCgNRw%3D%3D | (23) Conversational AI Architect, Google Cloud | Google | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3348332235/?refId=7ba2e736-142e-4296-a5b8-8b1b4172df3b&amp;trackingId=%2BZcj1mGHSn%2B9yVXS9569rQ%3D%3D | (23) AI Engineer | Booz Allen Hamilton | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3114642859/?refId=8a877dcb-5440-4fd7-a149-f23ed4a4f736&amp;trackingId=uz759sz%2FSsO4LtAafisFpQ%3D%3D | (23) Sr. Back-End Engineer - Europe | BetterUp | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3194933171/?refId=8a877dcb-5440-4fd7-a149-f23ed4a4f736&amp;trackingId=nq%2BKe1mLRhmHOyusEPyHHQ%3D%3D | (23) Software Engineer - Distributed Caching | Datadog | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3276328131/?refId=8a877dcb-5440-4fd7-a149-f23ed4a4f736&amp;trackingId=PnST3DlbQmOctaFXj8SCzg%3D%3D | (23) Technical Coach - Data Engineer | Outco Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3293810524/?refId=8a877dcb-5440-4fd7-a149-f23ed4a4f736&amp;trackingId=3xG%2FPpX0QU%2BGtgwyi813UQ%3D%3D | (23) Frontend Developer | Pietra | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3191460329/?refId=4c1817e1-60fc-4840-a32d-c92e4b1c22d8&amp;trackingId=E%2BKtWzgVSzKgBxMY7Pfr3g%3D%3D | (23) Senior Software Engineer, Backend | Webflow | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3321830619/?refId=4c1817e1-60fc-4840-a32d-c92e4b1c22d8&amp;trackingId=RMYXFgQ9TVS%2B2mm3vBizkA%3D%3D | (23) Software Engineer | Twitch | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3323209066/?refId=ceda4107-13af-48a1-88f2-9a5d8eb98c2b&amp;trackingId=ZHAhjUNnRDmZ8fymx33%2BBw%3D%3D | (23) Software Engineer II | Pandora | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3173110396/?refId=19b1cac2-a077-428c-822a-b867d3413448&amp;trackingId=tQYJhNdrTu20Mg6pon%2Begw%3D%3D | (23) Software Engineer | Berkeley Research Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325804132/?refId=6c4cab96-e94a-4795-9ade-8b276226dd68&amp;trackingId=RqcK%2BYibQRuBKwIGqNTRqQ%3D%3D | (23) Software Engineer - Mobile (Android) | Plaid | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3126760377/?refId=6c4cab96-e94a-4795-9ade-8b276226dd68&amp;trackingId=BVHZ515cQ4Gx7uBtRNTzIA%3D%3D | (23) Full Stack Software Engineer | Flatiron Health | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3126549412/?refId=9b27d15f-5f69-4f2b-9f8c-a76866e5d750&amp;trackingId=cep%2BkuBAR5Szmzmp2KmzuQ%3D%3D | (23) Staff Backend Software Engineer | Reddit, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3324676791/?refId=b407a8e9-cffc-4f51-8bef-46d6e0dc1268&amp;trackingId=F7cK%2FzN8RaKryf7uYEJxbA%3D%3D | (23) Software Engineer, Node | Pagoda | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3321414348/?refId=b407a8e9-cffc-4f51-8bef-46d6e0dc1268&amp;trackingId=cVJcQwpSSwCdnlfDX9KhAg%3D%3D | (23) Senior Software Engineer | Copia Automation | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3324665327/?refId=4e412be4-ca77-4e60-ba36-a55fdba6ef45&amp;trackingId=8pdYr3O%2BTgOT%2BfhXvnB8BQ%3D%3D | (23) Software Engineer | Foresite Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3324577661/?refId=62b70832-9172-4e2a-83ab-64129b61158a&amp;trackingId=VfSF6beORDiC%2FjEdDw33jA%3D%3D | (23) Software Engineer, Full Stack | Vanta | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3328970807/?refId=62b70832-9172-4e2a-83ab-64129b61158a&amp;trackingId=HwtrT5rqQRmvglcWpWGU%2BQ%3D%3D | (23) Software Engineer I | The Trade Desk | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3312526177/?refId=9350e7b6-44c6-4ae4-a4d9-f12a68924dfa&amp;trackingId=CfHGzgwBQi2Ti1XHHZxHqw%3D%3D | (23) User Experience Researcher | Photon | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3312562522/?refId=9350e7b6-44c6-4ae4-a4d9-f12a68924dfa&amp;trackingId=e7EydwMcStWmvxTH60bYQA%3D%3D | (23) Backend Engineer - Personalization | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3278958058/?refId=9350e7b6-44c6-4ae4-a4d9-f12a68924dfa&amp;trackingId=WPTRIAjGQjKgFblnY2Lu6w%3D%3D | (23) Full Stack Developer - Consultant - Commerce | Deloitte | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3320621283/?refId=eebc8f16-40ce-464f-bfba-0067592f18a3&amp;trackingId=OomfVEpmRVS8itD%2BDYM5dQ%3D%3D | (23) Developer Advocate | Figma | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3311469224/?refId=1139a8a1-fad4-4bd9-b50a-862c672b8c00&amp;trackingId=ytax2KURRdyM12IU1EMSKQ%3D%3D | (23) Software Engineer, Front End | Notion | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3318275722/?refId=1139a8a1-fad4-4bd9-b50a-862c672b8c00&amp;trackingId=LOG8vad8QPKrEsQG%2BobSrw%3D%3D | (23) Software Engineer Intern, Engineering Services (Summer 2023) | Okta | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3328887288/?refId=f29c98f0-0499-42b5-bc9d-220fea51fb1c&amp;trackingId=Kd6%2B4%2FJZSsifkIwdt1T6ZQ%3D%3D | (23) Software Engineer - Full-Stack | Figma | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325675582/?refId=f29c98f0-0499-42b5-bc9d-220fea51fb1c&amp;trackingId=Gn7BnkxBRHGxb5suqlTrDA%3D%3D | (23) Senior Software Engineer - Web3 / Typescript / GraphQL | European Recruitment | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3179442941/?refId=f205ba7d-dc7c-419d-af46-c91ab245d6eb&amp;trackingId=rua5USNVQs2eAhnUSlPlzQ%3D%3D | (23) Senior Full-Stack Engineer - Patient Engagement | Zocdoc | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3328133383/?refId=df08c1a8-5fdc-4874-840f-a29421c503fb&amp;trackingId=%2FZXJ9y5DQRuyJlSNfANYLQ%3D%3D | (23) Web Developer, Web Experience | Figma | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3328988485/?refId=02202e5b-ebbc-4785-a5fc-96d8b9d51466&amp;trackingId=wUEUujD8SdeYz8MCmMGeEw%3D%3D | (23) Software Engineer - FigJam | Figma | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3330075894/?refId=3bf7fb44-21a6-4541-a7db-9c8bb3024280&amp;trackingId=nQomka8NQVuJWEYChranFA%3D%3D | (23) Full Stack Engineer | PayPal | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325242031/?refId=5ae03cc8-bca1-44c1-94bd-d67448e0e2cb&amp;trackingId=CnBaan6XTe%2BaZ%2Fc3hMdVVw%3D%3D | (23) Software Engineer Front End | Hearst | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3330099264/?refId=af747c8c-8aea-4b26-b5cd-ad41199a8323&amp;trackingId=dm%2FPMJm9SSePqxSEEAnPSQ%3D%3D | (23) Senior Software Engineer | Savage X Fenty | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325497543/?refId=04173e8c-c59a-434a-b522-740ed1cff09b&amp;trackingId=Zvq8IMS2QV6r5qAdHk%2F0lA%3D%3D | (23) Software Development Engineer | Twitch | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325861175/?refId=125988b8-4e68-47dc-a81f-7000a67d42df&amp;trackingId=fMn6NE6qTE2Jj16lMNDb8A%3D%3D | (23) Backend Software Engineer | MissionStaff | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3323760418/?refId=125988b8-4e68-47dc-a81f-7000a67d42df&amp;trackingId=XPtBXZpHRbWLnWdsaHMvgA%3D%3D | (23) Software Engineer, Infrastructure | PlanetScale | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3325632473/?refId=125988b8-4e68-47dc-a81f-7000a67d42df&amp;trackingId=z18Fq3LbRgmv10PGFqw%2BXg%3D%3D | (23) Software Development Engineer | Twitch | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3291618479/?refId=125988b8-4e68-47dc-a81f-7000a67d42df&amp;trackingId=%2Ftm15kBJSOiG3CnwbTlUpA%3D%3D | (23) Front-End Software Engineer | The New York Times | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3277965247/?refId=5fd7fc3e-48e9-4f0d-9e65-24d949623466&amp;trackingId=1R5eRUvsTqyAZQdRZW9EJQ%3D%3D | (23) Software Engineer - Frontend (Web3) | Sucuro | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3257389531/?refId=fb6aedea-a3d6-494b-b0e8-0e490e08bdff&amp;trackingId=RP8Dr8tnRTuzoko5Qh5voQ%3D%3D | (23) Senior Fullstack Engineer - Digital Workplace | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3276414311/?refId=fb6aedea-a3d6-494b-b0e8-0e490e08bdff&amp;trackingId=AF2fTWWNSECBcEKr1uq5LA%3D%3D | (23) Digital Product Designer | Burberry | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223702986/?refId=fb6aedea-a3d6-494b-b0e8-0e490e08bdff&amp;trackingId=EbGYnmTGSX2nCXdBlVZuSg%3D%3D | (23) Software Engineer, Product (Kustomer) | Kustomer | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3291408206/?refId=486b8e6a-72f1-429d-90ef-def7cad02858&amp;trackingId=Ks4aOJR8THyrcVSTP19bng%3D%3D | (23) Founding Engineer | Raydar | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3287498939/?refId=be767491-0929-43ad-bf49-cdaab1b67a81&amp;trackingId=7mEC%2Fa5vTlm9d2t7%2Bztgvg%3D%3D | (23) Senior Web3 Fullstack Engineer, Ecomm UX | Unstoppable Domains | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3277964279/?refId=0b0a44ab-34df-4918-9663-2effa36b066c&amp;trackingId=MuKZ7HPHQXmVdKS8UAOk2g%3D%3D | (23) Senior Front-end Engineer at VC-backed Startup (Web3) | TechTree | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3228444661/?refId=ea32e142-6076-47cd-b2db-3ab7ff7d36eb&amp;trackingId=gjTQ0noCTRWfvZt4xN8V1A%3D%3D | (23) Product Designer | Clixo by Toyish Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3273294385/?refId=46151ef8-16ed-4464-b53f-388a2ffe32fe&amp;trackingId=e5D0mZbtSk2EzsC8hvO41w%3D%3D | (23) Intern, UX Design | Autodesk | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3290115660/?refId=782b6c99-0b37-4c9f-a166-8f771671f7e3&amp;trackingId=MJ7ayWmwTR6MMK%2FmkQaSXA%3D%3D | (23) UI/UX Designer | Labs | Delphi Digital | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3245352556/?refId=782b6c99-0b37-4c9f-a166-8f771671f7e3&amp;trackingId=94dWiCUQQBa8w5lbSuA%2F6g%3D%3D | (23) Senior Engineering Manager | Twitch | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3296419421/?refId=431d117d-ab49-43cd-a6db-99e229f53f76&amp;trackingId=W0S9LdQ1Rb%2BI62CUQsvZEQ%3D%3D | (23) Sr. Machine Learning Engineer (NYC or Remote) | Runway | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3296311326/?refId=a49997ce-a7ab-4d51-a71d-15315fc057ed&amp;trackingId=3qwsIQvsTqKAWUDmVB4jnQ%3D%3D | (23) Software Engineer | Yext | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3278050606/?refId=2fe8b64c-1864-4342-a25c-56724397009f&amp;trackingId=E7PCGp87RKi600iNXHhvkQ%3D%3D | (23) Generalist Software Engineer | Dots (YC S21) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3288212131/?refId=36011f27-60e7-4444-8d8e-cfc2978ba71c&amp;trackingId=ZuRj2QTLR9aK%2B8HREYJXDQ%3D%3D | (23) Software Engineer, Story | The New York Times | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3270561277/?refId=91d59a90-f680-4d82-a78c-f8454b0fcc93&amp;trackingId=a4Oc5Ty9QkKhqfc32yn0xA%3D%3D | (23) NYC Full Stack Developer $110k-175k + BONUS | Xcede Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3295219122/?refId=42893059-933d-462b-a57c-00cabb331b99&amp;trackingId=%2FQUDPEezS22vfzjnsZSnRg%3D%3D | (23) Senior Data Engineer | Storm3 | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3276075410/?refId=3e394ffd-459b-4fd5-bb06-041c37e13e02&amp;trackingId=q5JhPi6VSyidd6SC62yiqw%3D%3D | (23) Software Engineer, Product Platform | OpenAI | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3295244403/?refId=4e5e7bca-8054-4b72-852f-f08feef31388&amp;trackingId=pr6ZNGJeSh27zzaejaogKg%3D%3D | (23) Full Stack Engineer | Spellbound | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3261445552/?refId=4e5e7bca-8054-4b72-852f-f08feef31388&amp;trackingId=tPUQBr6uT%2B%2BVEhVxIbZjlw%3D%3D | (23) Technical Business Analyst | iHeartMedia | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3302853889/?refId=9db2dc05-37fa-4f3f-ad79-1d1a53bd7048&amp;trackingId=wGyFV%2Fp%2FSoGKDW8KtZLJQw%3D%3D | (23) NLP Data Scientist | BrainWorks | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3309961582/?refId=a07a12e7-9ae8-48bf-bec6-7f8fc1c45a79&amp;trackingId=c4GtfRy2T8SohzQ9wcTSMQ%3D%3D | (23) Content Programmer II | WarnerMedia | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3305800687/?refId=e13aa894-ea10-48f8-9e12-dec318a51f37&amp;trackingId=xEyxNjGGTRq1c8gSkxvNkw%3D%3D | (23) Smart Contract Engineer (Solidity) Remote (US) | Custodia Bank | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3302591163/?refId=c23a34c3-f45f-4d9d-8dc5-72761c8dcae9&amp;trackingId=mUwmK6raRUaKxt8WNh%2B0UA%3D%3D | (23) Product Designer, Machine Learning- Platform | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3296061988/?refId=c23a34c3-f45f-4d9d-8dc5-72761c8dcae9&amp;trackingId=wXbtglWXT2Ohj3HJTo1hmQ%3D%3D | (23) Product Designer | Justworks | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3310078889/?refId=f7cfdd26-a459-4a08-be24-9e9184517071&amp;trackingId=KVnAYm14Smu4vqnblUzw9w%3D%3D | (23) Product Designer, Core Experience | Asana | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3300877831/?refId=f7cfdd26-a459-4a08-be24-9e9184517071&amp;trackingId=hc0MVd3LRo2d41OoIKj6sQ%3D%3D | (23) Lead Product Designer | Visible Alpha | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3284062865/?refId=f7cfdd26-a459-4a08-be24-9e9184517071&amp;trackingId=8FruFP9lRQyLoRhgYct%2FGg%3D%3D | (23) Product Designer (L3) - Flex | Twilio | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3271806645/?refId=d67169de-0761-42b3-b98b-393159ee29fe&amp;trackingId=KjeWK4AMT0qGr6AybVKi5w%3D%3D | (23) Product Designer | American Express | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3308720350/?refId=0608fb30-de7b-4c58-802e-4c5215494d9c&amp;trackingId=qiJQfP5TSH2m%2FcPEL7i%2FCg%3D%3D | (23) Product Designer | Cohere | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3294490608/?refId=c886f68d-18b1-4a10-bd67-70c69d7069f3&amp;trackingId=eHlhDm5kRvWEunFkLQxMbw%3D%3D | (23) Senior Software Engineer, Wallet &amp; Web3 (core) | Brave Software | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3312556966/?refId=8b02acdb-6a79-42e1-bac9-b5166261dbbb&amp;trackingId=X5raI2cuQjuYzprMxPnHug%3D%3D | (23) Backend Engineer - Personalization | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3304889739/?refId=8b02acdb-6a79-42e1-bac9-b5166261dbbb&amp;trackingId=eybxwEmiSiO7XClCxayj1w%3D%3D | (23) US Java Software Engineer - Returners Program | FDM Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3302209719/?refId=77f718f7-4910-4ec5-8ae9-8cb158733c5e&amp;trackingId=%2Fi4j%2Bm3zT%2FeZ0ArG5vvZdQ%3D%3D | (23) Software Engineer | Secureframe | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3306279296/?refId=77f718f7-4910-4ec5-8ae9-8cb158733c5e&amp;trackingId=UqZw2C9JSvGX8cPgMM9B2g%3D%3D | (23) Software Engineer // ReactJS | Motion Recruitment | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3250344859/?refId=7ed2b126-0925-4e78-8ff3-8a779619f70a&amp;trackingId=OMeIzkJmS3Os6JmaxzHRkQ%3D%3D | (23) Web3.0 Senior React Developer - London- Web3.0 / Blockchain / Crypto / DeFi Infrastructure Start-Up- Remote | Jobs via eFinancialCareers | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3257669860/?refId=7ed2b126-0925-4e78-8ff3-8a779619f70a&amp;trackingId=uWuqiYKQQsabCvwWPvuujA%3D%3D | (23) Web3 Solutions Architect | Ava Labs | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3254144418/?refId=46ef94ab-c8b6-4def-b3fc-9ecf4d4e5c7d&amp;trackingId=prH2TjX2TXeV%2FxaKZaVzhg%3D%3D | (23) Web3 Developer | Altura | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3243278079/?refId=dd00dc44-16c3-4e45-a1d6-66fb53f1306d&amp;trackingId=v2Z%2Bi%2F%2BDTd64MEcRIsXFRA%3D%3D | (23) Senior Full-Stack Engineer, Community Support Platform | Airbnb | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3249110471/?refId=dd00dc44-16c3-4e45-a1d6-66fb53f1306d&amp;trackingId=cmBqQCBURWGnRRabw%2FBPSg%3D%3D | (23) Full Stack Java / UI Software Engineer | JPMorgan Chase &amp; Co. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3205973189/?refId=44082c98-9899-4837-9d3d-b71178c26a37&amp;trackingId=HLnatvyBReuCWTfBMH7sHA%3D%3D | (23) Software Engineer - Cash Cards | Cash App | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3260089401/?refId=44082c98-9899-4837-9d3d-b71178c26a37&amp;trackingId=7gjOsrQKS6qiOWBo7BwqXQ%3D%3D | (23) Software Engineer / Senior Software Engineer (Java, SQL, web services) - AMP Commerce Engineering | Apple | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3249252938/?refId=44082c98-9899-4837-9d3d-b71178c26a37&amp;trackingId=2l4M99IGTzW146gsbWphVw%3D%3D | (23) Full-Stack Principal Software Engineer | Udemy | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3262429979/?refId=13af5c5a-87cf-43e1-8363-65826aab1315&amp;trackingId=DEqNG97SQ6%2BYrxe22Eggcw%3D%3D | (23) Senior Software Engineer, Full-Stack (Remote) | Fictiv | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3258991179/?refId=13af5c5a-87cf-43e1-8363-65826aab1315&amp;trackingId=xZz8pb1MQViTqPDCEuVf2A%3D%3D | (23) Senior Full-Stack Java Developers | Softrams | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3259945779/?refId=13af5c5a-87cf-43e1-8363-65826aab1315&amp;trackingId=rQJP78v3STW4q5R0OdxSDQ%3D%3D | (23) Senior Fullstack/Backend Engineer - Music Vertical Platform | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3251858807/?refId=13af5c5a-87cf-43e1-8363-65826aab1315&amp;trackingId=9Mzf3EAdQg6o1IvWddzPlA%3D%3D | (23) Tutor (External Contractor) - Front-End Web Developer Nanodegree | Udacity | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3267779206/?refId=13af5c5a-87cf-43e1-8363-65826aab1315&amp;trackingId=IFFSu2jFSv69sYWEQAPVBw%3D%3D | (23) Backend Engineer, Audiobooks | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3261409030/?refId=25475e1c-86e6-4af0-b716-7d9f66f2fce4&amp;trackingId=%2BSgfx2tHTG%2Bsl0FQ%2F0MQkw%3D%3D | (23) Software Engineer | Boston Consulting Group (BCG) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3267908359/?refId=3d81c858-72fb-440b-a2be-ea22bec06ef9&amp;trackingId=MeCKPektT5ehiEuJK5enPA%3D%3D | (23) Staff Experience Designer, Interaction | Airbnb | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3267358990/?refId=c5d7afb0-d0d0-41b7-995a-3f720a9a0f0f&amp;trackingId=WG2yGBFgSw%2BeC018Y%2BX0UA%3D%3D | (23) Staff Fullstack Engineer (NYC or Remote) | Runway | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3072906923/?refId=c5d7afb0-d0d0-41b7-995a-3f720a9a0f0f&amp;trackingId=bXAf5kcpRFqQRGuOcwgTmw%3D%3D | (23) Product Designer (UI and Design Systems) | Exygy | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3192495149/?refId=ad6be75e-6020-48f4-a2dc-fdc3c3206265&amp;trackingId=ntlCbSckSfiDRIRpWYw3zw%3D%3D | (23) Front End Engineer (React) | Tome | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3194283677/?refId=ad6be75e-6020-48f4-a2dc-fdc3c3206265&amp;trackingId=3T2rprXCRyG6v0jlb82GOA%3D%3D | (23) Staff Backend Software Engineer | Cortex | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3273785902/?refId=6853d31f-4137-48a8-b700-9f0632ba934c&amp;trackingId=zR5W2YxwSMuk%2FIZo2LMgUg%3D%3D | (23) Brand Designer - Slack | Slack | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3233534068/?refId=fac19834-5fb8-49fa-8df2-427c9487d2bd&amp;trackingId=B%2FTXAnlKTk2diqohqTVWeQ%3D%3D | (23) Software Engineer, Intern (Frontend/Fullstack) | Instabase | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3143472554/?refId=fac19834-5fb8-49fa-8df2-427c9487d2bd&amp;trackingId=N6xJmhOFTfWz1HfyTC%2FDsw%3D%3D | (23) Software Engineer - Backend | Genies | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3202729255/?refId=5d51a46b-b2e4-4271-ac08-a61d0d4971ce&amp;trackingId=PYB%2B9mhHQCOBkHq%2Furhy8g%3D%3D | (23) Senior Software Engineer, Product (Strategic Connections Team) | Asana | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3186637976/?refId=5d51a46b-b2e4-4271-ac08-a61d0d4971ce&amp;trackingId=EumS1mKjQNSJoHXK3bpo%2Fw%3D%3D | (23) Junior Fullstack Software Engineer - App Experience | Wish | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3202499174/?refId=5d51a46b-b2e4-4271-ac08-a61d0d4971ce&amp;trackingId=G5kwfsZuThK1uNvdLWGcGA%3D%3D | (23) Software Development Engineer, Music Growth and Marketing | Amazon Music | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3189584435/?refId=5d51a46b-b2e4-4271-ac08-a61d0d4971ce&amp;trackingId=7yEaSwIAQfCDNiVegULvyg%3D%3D | (23) Web/Full Stack Systems Engineer, Sales Operations - Advertising | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3213766541/?refId=124141e7-106f-48eb-8a86-786ae63590fc&amp;trackingId=5hPtjJwuReCXlriRWc6sww%3D%3D | (23) Software Engineer, Frontend Infrastructure | TikTok | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3133608306/?refId=124141e7-106f-48eb-8a86-786ae63590fc&amp;trackingId=b1kHqtHESBqeVxAqEDhYgg%3D%3D | (23) Web3 Backend Engineer | Blocknative | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3241674340/?refId=da83ec96-c3e3-4144-8c54-8b605f4d3f87&amp;trackingId=o3Kj5FnwQ6aEsMU1LTXNvA%3D%3D | (23) AI Security Engineer - GAMMA | Boston Consulting Group (BCG) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3248992905/?refId=da83ec96-c3e3-4144-8c54-8b605f4d3f87&amp;trackingId=zOtRyiIsRvCiaz4E%2B4h42Q%3D%3D | (23) AI Prompt Engineer | Addition | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3205223238/?refId=da83ec96-c3e3-4144-8c54-8b605f4d3f87&amp;trackingId=yqVUSpqIRFGpjm3EjIBP2Q%3D%3D | (23) AI Security Engineer - GAMMA | Boston Consulting Group (BCG) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3205218727/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=6b19W%2FkZROaVbIWxe0FS1w%3D%3D | (23) Product Designer, Growth | The New York Times | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3213710439/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=iR1vMNLrTL2eYy7Gda2zsQ%3D%3D | (23) Product Designer - Computational Platform (NYC) | Tempus Labs, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3228039699/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=dPZ6ycCrTkuKLBYNaginzA%3D%3D | (23) Full Stack Developer (Email &amp; Web) | Coursera | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3247243717/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=gYsqOsDyT6G00Je8QBn3jA%3D%3D | (23) Blockchain Security Auditor | Composable Finance | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3162074584/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=Nk%2BR1lPMSS6OpWN17TCT0w%3D%3D | (23) Software Engineer, TikTok Frontend | TikTok | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3244506939/?refId=3c2afe66-c879-4379-92b9-73200184ac54&amp;trackingId=RPpXiqKAQHyZpisDHzfASA%3D%3D | (23) AI Applications Engineer | NVIDIA | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3244340509/?refId=9af55bfa-3ca6-4301-a32c-b84aa1140006&amp;trackingId=NRhLvbq1RtOlTMr9Qt%2BazA%3D%3D | (23) Product Designer | Moveworks | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3232239562/?refId=f3989223-3ef9-47c7-b3c5-69e8ad5c3f6c&amp;trackingId=Hd3jkIgfReS443s%2FnAqjDQ%3D%3D | (23) Head of Web3 Engineering | Space and Time | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3224849568/?refId=f3989223-3ef9-47c7-b3c5-69e8ad5c3f6c&amp;trackingId=7h8Vgem7QVWRvr7uxlNs3Q%3D%3D | (23) Global Community Manager, NBA All World | Niantic, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3226102511/?refId=f4717a7e-6d6a-4101-a1f1-c9a00e586bd4&amp;trackingId=JRIhq9%2BRTHq38bSORfKVEA%3D%3D | (23) Content Creator | Switch | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3240973202/?refId=f4717a7e-6d6a-4101-a1f1-c9a00e586bd4&amp;trackingId=Uy3KtGghRAmBnvalNFXQzw%3D%3D | (23) Junior Software Engineer, Afterpay Infrastructure | Afterpay | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3240968767/?refId=f4717a7e-6d6a-4101-a1f1-c9a00e586bd4&amp;trackingId=OTL%2F6wDIR8uGTPjYH8eT2A%3D%3D | (23) 2023 University Graduate - Software Engineer | Adobe | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3224864347/?refId=f4717a7e-6d6a-4101-a1f1-c9a00e586bd4&amp;trackingId=EKZour7wS%2BavTxRp6sdV6A%3D%3D | (23) UX Engineer, Front End, AR | Google | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3241026447/?refId=07d7b468-2c8b-413d-b00d-ac1dcc57eb13&amp;trackingId=OXndSGtnRpGHauSTx6UugA%3D%3D | (23) Full Stack Engineer, Connect | Stripe | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3220638882/?refId=07d7b468-2c8b-413d-b00d-ac1dcc57eb13&amp;trackingId=5de98334SC6C0rOYHvLwWQ%3D%3D | (23) Fullstack Engineer, Ecommerce - Remote | Unstoppable Domains | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3235006805/?refId=07d7b468-2c8b-413d-b00d-ac1dcc57eb13&amp;trackingId=1nd9BvTcSYOki0FEmtrl0w%3D%3D | (23) Blockend (Backend/Solidity) Engineer | Enso Finance | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3237281154/?refId=07d7b468-2c8b-413d-b00d-ac1dcc57eb13&amp;trackingId=pZckUC4MRI2XXtc%2Btwh6PA%3D%3D | (23) Full Stack Engineer | Voice | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3215386360/?refId=07d7b468-2c8b-413d-b00d-ac1dcc57eb13&amp;trackingId=K6V%2FkQS2SfeuZl72N20ppw%3D%3D | (23) Senior Software Engineer (Mobile Snaps) | Consensys | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3193653120/?refId=a26d4425-fd5f-4250-9b07-194202198766&amp;trackingId=GHd%2BfK3ERyCGp8spOe52DA%3D%3D | (23) Fullstack Engineer, Identity - Remote | Unstoppable Domains | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3226616181/?refId=a26d4425-fd5f-4250-9b07-194202198766&amp;trackingId=wbwYK4uUTv65ENPLPz2lwg%3D%3D | (23) New Grad Software Engineer, Frontend | Circle | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3235009396/?refId=90577583-3fec-4a61-b232-381cb2712e80&amp;trackingId=77kgg8I8RLqg64kncxFW0w%3D%3D | (23) Blockend (Backend/Solidity) Engineer | Enso Finance | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3220866481/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=k5ds6uV6Q060JkTJp98EXQ%3D%3D | (23) Software Development Engineer, Music Growth | Amazon Music | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3237657835/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=U60eXeRZQe60WmHe%2BDb7kA%3D%3D | (23) Software Engineer, Mobile Audio and Video | TikTok | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223572399/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=faeuOgc7RMW5RuqVlxRKMA%3D%3D | (23) Ruby Software Engineer, Payment Permissions | Block | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3225548724/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=SX16hF8RTFu1PrVraF91IA%3D%3D | (23) 100% REMOTE: Software Engineer - React, Node | CyberCoders | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3237648889/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=LrDnxjKzQf6Xu1Bgk6hrLQ%3D%3D | (23) Senior Software Engineer, Mobile Video Performance and Architecture | TikTok | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3163387541/?refId=26df4a6f-5f0d-4091-834a-a0415b185979&amp;trackingId=EdJXTkiWTIujLMj9TeIHGw%3D%3D | (23) Software Engineer | Dragonfly | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3231656703/?refId=e030d46f-51bf-4055-86ee-61fd6ec18225&amp;trackingId=aAMy9mLrSsayIVDAI429%2FQ%3D%3D | (23) Full Stack Engineer | Storm2 | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3173183875/?refId=9a4f0117-3e10-409b-816f-c52336630fec&amp;trackingId=z%2Baaki74TEqOEjktYYc3BQ%3D%3D | (23) Blockchain Full-Stack JavaScript Engineer -Senior - Consulting - Location OPEN | EY | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3180339213/?refId=1d380470-47c0-43ef-97a4-5581a3ddbb0b&amp;trackingId=MBvSyVtpSS%2Bkd%2BaMQquovA%3D%3D | (23) Product Designer, Square Banking | Square | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3224858044/?refId=21781e33-30da-4600-ac71-02a7a001c420&amp;trackingId=pHf7u%2FJ%2FQW2CsrByKbW7tw%3D%3D | (23) Fullstack/Web Engineer - Spotify for Artists, Fan Commerce | Spotify | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3245538175/?refId=c61490dd-dca4-4a8e-b8c2-ca0726a81ef2&amp;trackingId=rD65wYtsSsabMmdfMJ%2FMSQ%3D%3D | (23) Senior Product Designer, Internal Tools | Duolingo | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3247425005/?refId=c61490dd-dca4-4a8e-b8c2-ca0726a81ef2&amp;trackingId=6Up%2B%2FFNCQpSq9upFZxCg0w%3D%3D | (23) Product Designer | The Sage Group (Bay Area) | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3651787619/?refId=40731d2f-162b-46b9-93fe-870b039a4c5f&amp;trackingId=Y2RjQqn%2FTV2G3lEEXRgOOw%3D%3D | (23) Senior Backend Engineer - Web3 | Hala Systems, Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3637244776/?refId=40731d2f-162b-46b9-93fe-870b039a4c5f&amp;trackingId=%2B0khpZKBQjGAIdafouMArw%3D%3D | (23) Product Designer - Web3/Gaming | Austin Werner | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3660140886/?refId=40731d2f-162b-46b9-93fe-870b039a4c5f&amp;trackingId=nleMS6QSRO%2BG%2BJ5mQb3zfw%3D%3D | (23) Web3 Developer | Jobot | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3675075252/?refId=8f46701c-0a5e-47e1-b3b6-ab420c47dee1&amp;trackingId=CBt9CUYWRfm%2FMsASXs97hA%3D%3D | (23) Software Engineer, Full-Stack | Hearth | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3672732493/?refId=8f46701c-0a5e-47e1-b3b6-ab420c47dee1&amp;trackingId=9BTQRIkpQiqr0CJKmDruAg%3D%3D | (23) Senior Software Engineer | OpenYield | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3637774538/?refId=8f46701c-0a5e-47e1-b3b6-ab420c47dee1&amp;trackingId=3aPa2p74RuGhT7sNuP7sjQ%3D%3D | (23) Full Stack Product Engineer L4 - Growth Messaging Experiences | Netflix | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3644264292/?refId=8f46701c-0a5e-47e1-b3b6-ab420c47dee1&amp;trackingId=nmtSD7LeQiaPiyb%2FHtYgCQ%3D%3D | (23) Senior Software Engineer | Kickstarter | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3194927847/?refId=515bee45-d48f-407e-aa59-058a921ac9e4&amp;trackingId=dqCT5ar4SSCFWU9EIY47Ew%3D%3D | (24) Software Engineer - Site Reliability | Datadog | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3551638814/?refId=72aecd8e-0f26-4f8e-a07f-453aad4260a3&amp;trackingId=wcs1izMNQdyc9waZ%2FMBWPw%3D%3D | (24) Oracle HCM Full Stack Software Engineer | MetLife | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3591029468/?refId=f12fd8b3-31d9-491e-b9b1-32687c6ff5b6&amp;trackingId=LItGW3l0RgOXL5KjeBBPeA%3D%3D | (24) Principal Software Engineer - Backend Developer | Nasdaq | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3586150650/?refId=f12fd8b3-31d9-491e-b9b1-32687c6ff5b6&amp;trackingId=DHA%2FDtymRRGqtnck4lbxGA%3D%3D | (24) Senior Software Engineer, Full Stack - Account | FanDuel | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3683690587/?refId=16ed1142-a1cd-4396-a931-a85bda8b8ee0&amp;trackingId=Sfl3IYFdS7udBQ0X%2Fk89ZQ%3D%3D | (24) Principal ML/AI Engineer | Well | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3694038791/?refId=f836c52a-125f-4c56-9033-271152518407&amp;trackingId=9FAli9J3RHa6MQGdG6UPuw%3D%3D | (24) Senior Full Stack Engineer | Harnham | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3589289098/?refId=739d9c63-a86e-463f-877b-93fe8c8765d6&amp;trackingId=czZPEkbWSoC%2BHolcTLETBw%3D%3D | (24) Software Engineer | Atlas Search | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3510610889/?refId=739d9c63-a86e-463f-877b-93fe8c8765d6&amp;trackingId=GivHM19XRMqTin%2ByOc8J1A%3D%3D | (24) Embedded Software Engineer | Persistent Systems, LLC | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3594615327/?refId=813ad32f-0db0-4a3f-8550-c6c778ce3a36&amp;trackingId=l9XWWlnmSA6Xublp%2FaRE6A%3D%3D | (24) Software Engineer, User and Identity Platform | Squarespace | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3594634766/?refId=813ad32f-0db0-4a3f-8550-c6c778ce3a36&amp;trackingId=bHbAKhfbQquHCHC0HfWVAQ%3D%3D | (24) Software Engineer | Level All | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3588893003/?refId=813ad32f-0db0-4a3f-8550-c6c778ce3a36&amp;trackingId=TSr8Gp0RTPy5EZ0UvSTqSA%3D%3D | (24) Software Engineer, Cash Cards | Cash App | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3484254753/?refId=bae58fb2-41fd-4382-b51d-a0daf1acef0b&amp;trackingId=3KfgS9svSFmWiyRqz2cDQA%3D%3D | (24) Senior Software Engineer - Back-End | StubHub | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3587418135/?refId=bae58fb2-41fd-4382-b51d-a0daf1acef0b&amp;trackingId=ZGhnjIDPRLq4eTOIAboFhQ%3D%3D | (24) Full Stack Software Engineer | Intelletec | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3584787962/?refId=f6406006-3227-4728-aed3-ab44cd81e540&amp;trackingId=96gMwgz4S96MoRXQhc8NCg%3D%3D | (24) Lead Software Engineer | Radancy | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3588475397/?refId=caef844b-532f-4a73-a9f5-6860efe62ef7&amp;trackingId=0pg2z5yGTea9TdCIJ9jvIA%3D%3D | (24) Senior Staff Software Engineer, Money | SoFi | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3557228722/?refId=caef844b-532f-4a73-a9f5-6860efe62ef7&amp;trackingId=8piJ9mjwSIG0NhTrz3N6uA%3D%3D | (24) Staff Software Engineer | Grow Therapy | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3524294287/?refId=caef844b-532f-4a73-a9f5-6860efe62ef7&amp;trackingId=6XF52cA%2FSj6orFI00wEDIg%3D%3D | (24) Cloud Engineer | JPMorgan Chase &amp; Co. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3367165961/?refId=037ce552-366f-494e-a6aa-f4cdf9aa8903&amp;trackingId=x4o4qqNOT0WR58uM4v1kzA%3D%3D | (24) Staff Software Engineer | Cloud Infrastructure | Ramp | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3487062664/?refId=29d13055-39cc-41b5-abd7-1b37206deb75&amp;trackingId=N4dRsVrSQb6LU%2BQnLGtJcQ%3D%3D | (24) Sr. Software Engineer - Backend, Kohler Ventures | Kohler Ventures | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3553518274/?refId=29d13055-39cc-41b5-abd7-1b37206deb75&amp;trackingId=8ZqTIFcuQoWTDnqqi2%2BRBg%3D%3D | (24) Senior Software Engineer | Vise | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3555832039/?refId=29d13055-39cc-41b5-abd7-1b37206deb75&amp;trackingId=zTEOlm1SQdOJAHomMuSYhA%3D%3D | (24) Sr Software Engineer + Terraform | Orbis | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3580543058/?refId=29d13055-39cc-41b5-abd7-1b37206deb75&amp;trackingId=LEJJQW4kQ7ahP14ULE3Kjg%3D%3D | (24) Founding Software Engineer | Halo | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3542432465/?refId=bae7e923-9478-4642-8884-2e4ad63c7e8c&amp;trackingId=MyK1qzNhRkiAox%2BbPm0vzw%3D%3D | (24) Software Engineer | Stellar Development Foundation | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3464047218/?refId=bae7e923-9478-4642-8884-2e4ad63c7e8c&amp;trackingId=mVPkgSjASUqG139Y07JX2g%3D%3D | (24) Compiler Developer - multiple levels (remote friendly) | Qualcomm | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3583545966/?refId=bae7e923-9478-4642-8884-2e4ad63c7e8c&amp;trackingId=Y6VDgHzVTp%2B2w%2FCwkd%2FiyQ%3D%3D | (24) Software Engineer - RUST | Zelis | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3582107710/?refId=bae7e923-9478-4642-8884-2e4ad63c7e8c&amp;trackingId=%2BAB18LErQIG6GwLYD%2By8Fw%3D%3D | (24) Software Engineer, Infrastructure - Prescient Design | Genentech | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3556966752/?refId=f075a1f4-41e0-4167-887d-a60385a074b9&amp;trackingId=tBKB7H0yS4uG8q%2BXYxubuw%3D%3D | (24) Software Engineer | MSCI Inc. | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3524214070/?refId=f075a1f4-41e0-4167-887d-a60385a074b9&amp;trackingId=OlU4kzv7QFiSrgiyytDF%2Fw%3D%3D | (24) Software Engineer - Reliability Engineering | Schonfeld | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3488620033/?refId=f075a1f4-41e0-4167-887d-a60385a074b9&amp;trackingId=D6TIFlv1S8GzW7oiXfA65A%3D%3D | (24) Mobile Software Engineer | Endeavor | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3586545443/?refId=f075a1f4-41e0-4167-887d-a60385a074b9&amp;trackingId=Bo9%2FrvwOSOqv9pdf%2BlKviA%3D%3D | (24) Senior Software Engineer | Zephyr AI | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3552256579/?refId=f075a1f4-41e0-4167-887d-a60385a074b9&amp;trackingId=TecyAUU%2BTxaK0RJJPqq8Vw%3D%3D | (24) Software Engineer | VantAI | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3525617196/?refId=8d311f1f-1f6f-4446-ba8d-f9a850667fa2&amp;trackingId=j921WLLcR0KVw0hBSvKVFA%3D%3D | (24) Software Engineer | Sony Music Entertainment | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3591568009/?refId=ffcfe462-2dba-4f5a-9e75-a73590e97a4e&amp;trackingId=HyxqQbMsS%2B6AaBUm3XngPw%3D%3D | (24) Software Engineer (C++) | Cerberus Capital Management | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3583298737/?refId=ffcfe462-2dba-4f5a-9e75-a73590e97a4e&amp;trackingId=vrIJ9HLnSUWwz8iE46rZyw%3D%3D | (24) Cloud Engineer | The Phoenix Group | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3582121008/?refId=ffcfe462-2dba-4f5a-9e75-a73590e97a4e&amp;trackingId=FbNEnxQHTgaKnu0epwMEag%3D%3D | (24) Embedded Software Engineer | Coalesce Management Consulting | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3594624933/?refId=ffcfe462-2dba-4f5a-9e75-a73590e97a4e&amp;trackingId=kp7mokTwQYiThjr1u81okA%3D%3D | (24) Full Stack Software Engineer, C# | C2R Ventures | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3483188790/?refId=e005b208-825c-4758-9fc3-2baf0d4eeaa3&amp;trackingId=RQfxczgXQrC%2BOIZFxk3jAA%3D%3D | (23) Software Engineer, Growth | Notion | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3486407692/?refId=e005b208-825c-4758-9fc3-2baf0d4eeaa3&amp;trackingId=pBnTs38FSzes0JdjPmhd6w%3D%3D | (23) Back End Developer | Nike | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3484034194/?refId=e005b208-825c-4758-9fc3-2baf0d4eeaa3&amp;trackingId=aAm%2FX96bS2yyVAkzq12u9A%3D%3D | (23) Senior Software Engineer | Grow Therapy | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3223530010/?refId=618bf7d3-3bf5-4ffc-af2d-aceeae0315c2&amp;trackingId=l34ZsB%2BbSgu2mm2YL9w8JA%3D%3D | (23) Senior+ Software Engineer, Systems | EVEN | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3588329596/?refId=4e0bf097-fca2-4959-9c05-268aa9acc6b7&amp;trackingId=gJFbANmrRJigOa5wKjFG9Q%3D%3D | (23) Software Engineer | Afficiency | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3589864540/?refId=4e0bf097-fca2-4959-9c05-268aa9acc6b7&amp;trackingId=vOYMMb5ZT1%2BaPCXRL0xvjA%3D%3D | (23) Software Engineer, Backend Infrastructure | Moloco | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3560581985/?refId=4e0bf097-fca2-4959-9c05-268aa9acc6b7&amp;trackingId=GgTl90KTQJyWRP7vA3nbSQ%3D%3D | (23) Senior Software Engineer | Gemini | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3549698884/?refId=822191fc-14a0-48bb-9a49-1400e78e1c04&amp;trackingId=7cWae2wuSK6S4WhT33s5dg%3D%3D | (23) Principal Software Engineer | Kinship | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3487753038/?refId=dbe17d7b-3583-4281-8dd4-ddc3602a06bd&amp;trackingId=O1mqUHE3Q9uajRd09zkSvQ%3D%3D | (23) Senior Software Engineer - Fullstack | Sigma Computing | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3349838464/?refId=27554997-d74e-4883-9dc3-23b89d04205f&amp;trackingId=gCMczpGQQjS3ln8v%2FgMdqw%3D%3D | (23) Data Scientist - Forecasting &amp; Analytics | Gusto | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3341032655/?refId=62d65b5e-528e-4e9d-b489-3bfaa95b4b10&amp;trackingId=uKHeKRiJRZKr2BqJufCguQ%3D%3D | (23) Web Solutions Engineer, Google Customer Solutions | Google | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3432495484/?refId=d08590c4-af20-4f22-85ee-a7eac04a02d7&amp;trackingId=LYqb19NoR%2BeSHu3skx2oUA%3D%3D | (23) Junior Developer | HCLTech | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3445308183/?refId=d08590c4-af20-4f22-85ee-a7eac04a02d7&amp;trackingId=evROKKDoQ2O89aBb8a0ZPQ%3D%3D | (23) Full Stack Software Engineer | Mellon Foundation | LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3438371135/?refId=d08590c4-af20-4f22-85ee-a7eac04a02d7&amp;trackingId=QU5psn%2B3QFmcwNl%2FXqBPhA%3D%3D | (23) Frontend Software Engineer, Infrastructure Platform | TikTok | LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -3285,10 +4242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8235A4-C3B3-1F4B-807C-57AE4D1C4405}">
-  <dimension ref="A1:A199"/>
+  <dimension ref="A1:A531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4289,6 +5246,1601 @@
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>919</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
